--- a/excel_all.xlsx
+++ b/excel_all.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuca\Desktop\IBA6002\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode\CUHK-vscode\pre设计\ExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9AF03-C5A8-4DFA-8F68-51237BAECC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8690D0B-3702-4063-9024-2A3D491D2D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="825" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ProblemType" sheetId="3" r:id="rId1"/>
+    <sheet name="ProblemType" sheetId="1" r:id="rId1"/>
     <sheet name="BasicPython" sheetId="2" r:id="rId2"/>
-    <sheet name="LoopAndLogic" sheetId="4" r:id="rId3"/>
-    <sheet name="Function" sheetId="5" r:id="rId4"/>
-    <sheet name="Virtualization" sheetId="7" r:id="rId5"/>
-    <sheet name="NumpAndPandas" sheetId="8" r:id="rId6"/>
-    <sheet name="Answer" sheetId="6" r:id="rId7"/>
+    <sheet name="LoopAndLogic" sheetId="3" r:id="rId3"/>
+    <sheet name="Function" sheetId="4" r:id="rId4"/>
+    <sheet name="Virtualization" sheetId="5" r:id="rId5"/>
+    <sheet name="NumpAndPandas" sheetId="6" r:id="rId6"/>
+    <sheet name="Answer" sheetId="7" r:id="rId7"/>
+    <sheet name="User" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>TypeNum</t>
   </si>
@@ -389,7 +390,34 @@
     <t>AC</t>
   </si>
   <si>
-    <t>type</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>test_user</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>a,b,c</t>
+  </si>
+  <si>
+    <t>test_u2</t>
+  </si>
+  <si>
+    <t>problemid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +470,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,11 +485,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -470,22 +519,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCC66FF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -757,16 +804,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,31 +819,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -806,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -824,15 +869,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -853,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>101</v>
       </c>
@@ -876,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="111" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>102</v>
       </c>
@@ -899,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>103</v>
       </c>
@@ -922,7 +965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="180.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>104</v>
       </c>
@@ -945,7 +988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>105</v>
       </c>
@@ -968,7 +1011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>106</v>
       </c>
@@ -991,7 +1034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>107</v>
       </c>
@@ -1006,7 +1049,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>108</v>
       </c>
@@ -1031,13 +1074,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>201</v>
       </c>
@@ -1079,7 +1122,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>202</v>
       </c>
@@ -1098,7 +1141,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>203</v>
       </c>
@@ -1117,7 +1160,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>204</v>
       </c>
@@ -1140,7 +1183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>205</v>
       </c>
@@ -1163,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>206</v>
       </c>
@@ -1180,7 +1223,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="194.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>207</v>
       </c>
@@ -1209,9 +1252,9 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>301</v>
       </c>
@@ -1253,7 +1296,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="111" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>302</v>
       </c>
@@ -1272,7 +1315,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="111" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>303</v>
       </c>
@@ -1291,7 +1334,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="111" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>304</v>
       </c>
@@ -1314,7 +1357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="111" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>305</v>
       </c>
@@ -1337,7 +1380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="208.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>306</v>
       </c>
@@ -1360,7 +1403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>307</v>
       </c>
@@ -1389,9 +1432,9 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>401</v>
       </c>
@@ -1433,7 +1476,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>402</v>
       </c>
@@ -1452,7 +1495,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>403</v>
       </c>
@@ -1475,7 +1518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>404</v>
       </c>
@@ -1494,7 +1537,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>405</v>
       </c>
@@ -1513,7 +1556,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="166.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>406</v>
       </c>
@@ -1542,9 +1585,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +1610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>501</v>
       </c>
@@ -1590,7 +1633,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>502</v>
       </c>
@@ -1609,7 +1652,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>503</v>
       </c>
@@ -1632,7 +1675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>504</v>
       </c>
@@ -1655,7 +1698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>505</v>
       </c>
@@ -1678,7 +1721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="111" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>506</v>
       </c>
@@ -1693,7 +1736,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>507</v>
       </c>
@@ -1721,20 +1764,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1745,7 +1788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1756,7 +1799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1767,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1778,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1789,7 +1832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1800,7 +1843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1808,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1816,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>201</v>
       </c>
@@ -1827,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>202</v>
       </c>
@@ -1838,7 +1881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>203</v>
       </c>
@@ -1849,7 +1892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>204</v>
       </c>
@@ -1860,7 +1903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>205</v>
       </c>
@@ -1871,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>206</v>
       </c>
@@ -1882,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>207</v>
       </c>
@@ -1893,7 +1936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>301</v>
       </c>
@@ -1904,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>302</v>
       </c>
@@ -1915,7 +1958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>303</v>
       </c>
@@ -1926,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>304</v>
       </c>
@@ -1937,7 +1980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>305</v>
       </c>
@@ -1948,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>306</v>
       </c>
@@ -1959,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>307</v>
       </c>
@@ -1967,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>401</v>
       </c>
@@ -1978,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>402</v>
       </c>
@@ -1989,7 +2032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>403</v>
       </c>
@@ -2000,7 +2043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>404</v>
       </c>
@@ -2011,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>405</v>
       </c>
@@ -2022,7 +2065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>406</v>
       </c>
@@ -2030,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>501</v>
       </c>
@@ -2041,7 +2084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>502</v>
       </c>
@@ -2052,7 +2095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>503</v>
       </c>
@@ -2063,7 +2106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>504</v>
       </c>
@@ -2074,7 +2117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>505</v>
       </c>
@@ -2085,7 +2128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>506</v>
       </c>
@@ -2093,12 +2136,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>507</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="D3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
